--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/110.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/110.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1809840278804543</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.751646277989749</v>
+        <v>-1.752975537137688</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0776142100019365</v>
+        <v>0.07734347871307277</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2684795403705375</v>
+        <v>-0.2686086099384841</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1955385295932564</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.752194036643962</v>
+        <v>-1.753941197868606</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06575240190381451</v>
+        <v>0.06452309297007867</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.235519579970501</v>
+        <v>-0.2352409785860308</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2210192821149985</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.806814074172217</v>
+        <v>-1.809421436846652</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1003005475972433</v>
+        <v>0.09962529339420531</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2649474414623387</v>
+        <v>-0.2651693781584421</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2532332758826386</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.976414634492367</v>
+        <v>-1.979956964524854</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1612607341460977</v>
+        <v>0.1608514891745595</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2930106283760087</v>
+        <v>-0.2932734895692659</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2863605288218377</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.964259271828122</v>
+        <v>-1.966771406345718</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3146315833065154</v>
+        <v>0.3150313841633257</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3120058911318654</v>
+        <v>-0.312328565051732</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3122145811605172</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.854596572637542</v>
+        <v>-1.856036800133532</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4250568947613651</v>
+        <v>0.4259462155649</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3208251202685131</v>
+        <v>-0.3208597486891817</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3266427078264198</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.586688287067877</v>
+        <v>-1.587945141336235</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5968720999851843</v>
+        <v>0.5984665813550619</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3493211624405408</v>
+        <v>-0.3498295706167209</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3295160736250051</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.133682435919296</v>
+        <v>-1.133969694408934</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6814567395256407</v>
+        <v>0.684478856238538</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3243084245839515</v>
+        <v>-0.3253173708407053</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3202265007620498</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5671764269624051</v>
+        <v>-0.567919363987659</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6474579265055458</v>
+        <v>0.6498819159523489</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.306690428559233</v>
+        <v>-0.3076458581658624</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2934964614836496</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.08199762497443845</v>
+        <v>-0.08145773641583232</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6044415579395193</v>
+        <v>0.6075722819717864</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2583523013440888</v>
+        <v>-0.2596917916163157</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2432688513967547</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5742754814797916</v>
+        <v>0.5743022398048537</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5528137307608567</v>
+        <v>0.5577624468782261</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1855287326779912</v>
+        <v>-0.1876457883961406</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1623655282182869</v>
       </c>
       <c r="E13" t="n">
-        <v>1.192315663477628</v>
+        <v>1.192525008020761</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3726940006530551</v>
+        <v>0.3764291480279017</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.07435891017876621</v>
+        <v>-0.0752435089249372</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.05080208520662897</v>
       </c>
       <c r="E14" t="n">
-        <v>1.788352632178802</v>
+        <v>1.787276003099832</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1147563392072688</v>
+        <v>0.1179311357749323</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04588985461212113</v>
+        <v>0.04486674218327568</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.08694706641481748</v>
       </c>
       <c r="E15" t="n">
-        <v>2.450591271102762</v>
+        <v>2.447968955246675</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1163285560291278</v>
+        <v>-0.1113640997205454</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1839014251868867</v>
+        <v>0.1821149134842105</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2462365176689623</v>
       </c>
       <c r="E16" t="n">
-        <v>2.947334391574925</v>
+        <v>2.943563041760288</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4630928385472758</v>
+        <v>-0.459544999447864</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3559747695465992</v>
+        <v>0.3550728565900939</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4188651558096165</v>
       </c>
       <c r="E17" t="n">
-        <v>3.466173592471906</v>
+        <v>3.461846613907451</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7784995121308715</v>
+        <v>-0.7743629898800933</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5221974848324371</v>
+        <v>0.5208343842733907</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.5954292969393683</v>
       </c>
       <c r="E18" t="n">
-        <v>3.94710096881324</v>
+        <v>3.943113978378985</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.112776313950181</v>
+        <v>-1.10964165487011</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6456084540380175</v>
+        <v>0.6440486010888085</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.7621227858456414</v>
       </c>
       <c r="E19" t="n">
-        <v>4.20964263618883</v>
+        <v>4.205186588056428</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.491716695345957</v>
+        <v>-1.48973500527224</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8576917904420721</v>
+        <v>0.8563223938065405</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.9084402096867938</v>
       </c>
       <c r="E20" t="n">
-        <v>4.468754515899107</v>
+        <v>4.463618491506303</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.845105237336099</v>
+        <v>-1.842423108753403</v>
       </c>
       <c r="G20" t="n">
-        <v>1.044471195452097</v>
+        <v>1.043341049723003</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.02975425324483</v>
       </c>
       <c r="E21" t="n">
-        <v>4.68095747775638</v>
+        <v>4.675508223558437</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.223248378046937</v>
+        <v>-2.221222615437823</v>
       </c>
       <c r="G21" t="n">
-        <v>1.25845279891644</v>
+        <v>1.256885075871625</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.126067513287453</v>
       </c>
       <c r="E22" t="n">
-        <v>4.765069911560447</v>
+        <v>4.760188878265294</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.519969083632012</v>
+        <v>-2.517554538299936</v>
       </c>
       <c r="G22" t="n">
-        <v>1.415968040423243</v>
+        <v>1.414567163405285</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.199747711460727</v>
       </c>
       <c r="E23" t="n">
-        <v>4.832759029852862</v>
+        <v>4.826662853796064</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.723660537090852</v>
+        <v>-2.721495473789503</v>
       </c>
       <c r="G23" t="n">
-        <v>1.538497558920895</v>
+        <v>1.536300228227559</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.251411212488882</v>
       </c>
       <c r="E24" t="n">
-        <v>4.861053597577363</v>
+        <v>4.854170411959915</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.847850645761476</v>
+        <v>-2.846969195053548</v>
       </c>
       <c r="G24" t="n">
-        <v>1.595432978576583</v>
+        <v>1.593498509076505</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.282385125993523</v>
       </c>
       <c r="E25" t="n">
-        <v>4.926710657184178</v>
+        <v>4.919758214725393</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.039741677867925</v>
+        <v>-3.03962677447207</v>
       </c>
       <c r="G25" t="n">
-        <v>1.698781500062065</v>
+        <v>1.697386919120593</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.293589348681678</v>
       </c>
       <c r="E26" t="n">
-        <v>5.0180541348315</v>
+        <v>5.010407549940221</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.165193362864271</v>
+        <v>-3.165173687625255</v>
       </c>
       <c r="G26" t="n">
-        <v>1.730395674113389</v>
+        <v>1.729408764124334</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.287136380711446</v>
       </c>
       <c r="E27" t="n">
-        <v>4.973207182027401</v>
+        <v>4.965710128952646</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.217572784173355</v>
+        <v>-3.218501455454922</v>
       </c>
       <c r="G27" t="n">
-        <v>1.75133170244581</v>
+        <v>1.750132299875379</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.265594472091995</v>
       </c>
       <c r="E28" t="n">
-        <v>4.984983993092972</v>
+        <v>4.977642767911226</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.234354976044663</v>
+        <v>-3.235425309047148</v>
       </c>
       <c r="G28" t="n">
-        <v>1.774485523720143</v>
+        <v>1.773504909807573</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.23223330083828</v>
       </c>
       <c r="E29" t="n">
-        <v>4.961708972346299</v>
+        <v>4.954087571760962</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.148852683356488</v>
+        <v>-3.149889961957426</v>
       </c>
       <c r="G29" t="n">
-        <v>1.709273911524656</v>
+        <v>1.708043028571798</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.190700158698823</v>
       </c>
       <c r="E30" t="n">
-        <v>4.877607556676082</v>
+        <v>4.869765793413762</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.112098549864557</v>
+        <v>-3.11333651590346</v>
       </c>
       <c r="G30" t="n">
-        <v>1.657704323053481</v>
+        <v>1.655771427572524</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.144650082634515</v>
       </c>
       <c r="E31" t="n">
-        <v>4.72993150869653</v>
+        <v>4.722445473755625</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.052837516957147</v>
+        <v>-3.054845965355926</v>
       </c>
       <c r="G31" t="n">
-        <v>1.597809747449747</v>
+        <v>1.595717876037539</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.096100584516072</v>
       </c>
       <c r="E32" t="n">
-        <v>4.702834769523339</v>
+        <v>4.696356106820065</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.937376918333256</v>
+        <v>-2.939429439267432</v>
       </c>
       <c r="G32" t="n">
-        <v>1.550959068304232</v>
+        <v>1.550293258215922</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.047039953207517</v>
       </c>
       <c r="E33" t="n">
-        <v>4.539815183149348</v>
+        <v>4.533720581111671</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.855339828740625</v>
+        <v>-2.857460032497017</v>
       </c>
       <c r="G33" t="n">
-        <v>1.475042552064779</v>
+        <v>1.473160025195703</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.9979562854961254</v>
       </c>
       <c r="E34" t="n">
-        <v>4.405722920186621</v>
+        <v>4.400224871395918</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.768510637933193</v>
+        <v>-2.769178809050186</v>
       </c>
       <c r="G34" t="n">
-        <v>1.414954372109125</v>
+        <v>1.412722412995121</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9486505831451781</v>
       </c>
       <c r="E35" t="n">
-        <v>4.196951320013783</v>
+        <v>4.191764927009097</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.745801477060628</v>
+        <v>-2.746145400238632</v>
       </c>
       <c r="G35" t="n">
-        <v>1.333365090956504</v>
+        <v>1.330766385387236</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8993269327232514</v>
       </c>
       <c r="E36" t="n">
-        <v>3.954533487104022</v>
+        <v>3.951127309725527</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.668849256239358</v>
+        <v>-2.668665883011727</v>
       </c>
       <c r="G36" t="n">
-        <v>1.333604341862942</v>
+        <v>1.331970510015031</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8486165309401545</v>
       </c>
       <c r="E37" t="n">
-        <v>3.735137257862404</v>
+        <v>3.731539050151111</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.587562973767588</v>
+        <v>-2.58806193782904</v>
       </c>
       <c r="G37" t="n">
-        <v>1.224257233506183</v>
+        <v>1.223168012274243</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7962194005701747</v>
       </c>
       <c r="E38" t="n">
-        <v>3.520725947177946</v>
+        <v>3.517163941906442</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.490591590752055</v>
+        <v>-2.491402997609086</v>
       </c>
       <c r="G38" t="n">
-        <v>1.14149216006995</v>
+        <v>1.139636391525937</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7411277709562953</v>
       </c>
       <c r="E39" t="n">
-        <v>3.271073922386686</v>
+        <v>3.267504047019576</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.444395703561002</v>
+        <v>-2.444499588823008</v>
       </c>
       <c r="G39" t="n">
-        <v>1.069751516559307</v>
+        <v>1.066908838026238</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6833605167915303</v>
       </c>
       <c r="E40" t="n">
-        <v>3.062366856997822</v>
+        <v>3.059045676651877</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.39506751831856</v>
+        <v>-2.395353989798636</v>
       </c>
       <c r="G40" t="n">
-        <v>1.011701691365738</v>
+        <v>1.009605097896165</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6234351506877318</v>
       </c>
       <c r="E41" t="n">
-        <v>2.842163155946976</v>
+        <v>2.838893918232035</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.378250698026583</v>
+        <v>-2.378753597135839</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9955223488178881</v>
+        <v>0.9918296999593168</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5604105043235345</v>
       </c>
       <c r="E42" t="n">
-        <v>2.580775244587299</v>
+        <v>2.576314474397533</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.348311280320323</v>
+        <v>-2.349298190309378</v>
       </c>
       <c r="G42" t="n">
-        <v>0.933798762995203</v>
+        <v>0.9303327728900989</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4950750643100411</v>
       </c>
       <c r="E43" t="n">
-        <v>2.411113297521419</v>
+        <v>2.407308893305236</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.347717875111592</v>
+        <v>-2.348300262186473</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8867733677272237</v>
+        <v>0.8835293143182229</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4274544887940928</v>
       </c>
       <c r="E44" t="n">
-        <v>2.20503956612249</v>
+        <v>2.200717309615399</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.296348974078384</v>
+        <v>-2.296984877803389</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7870010176853369</v>
+        <v>0.7839379764752858</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3580952351333783</v>
       </c>
       <c r="E45" t="n">
-        <v>2.064997510881247</v>
+        <v>2.061076629250087</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.221021140990297</v>
+        <v>-2.221263539934977</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7280288172866854</v>
+        <v>0.7251105858357939</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2877505480005157</v>
       </c>
       <c r="E46" t="n">
-        <v>1.916981474771494</v>
+        <v>1.912563203098003</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.151777678815598</v>
+        <v>-2.152429322731816</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6729916646912856</v>
+        <v>0.6702953699364975</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2169218980916658</v>
       </c>
       <c r="E47" t="n">
-        <v>1.763741269198144</v>
+        <v>1.760300463398981</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.104807374216863</v>
+        <v>-2.105252821628192</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6313604329520036</v>
+        <v>0.6284422015011122</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1484507759851705</v>
       </c>
       <c r="E48" t="n">
-        <v>1.634462356708355</v>
+        <v>1.630818502442544</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.945485158758808</v>
+        <v>-1.945688207225456</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5296362991997041</v>
+        <v>0.5261073483297479</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.08458996580495962</v>
       </c>
       <c r="E49" t="n">
-        <v>1.535445535844693</v>
+        <v>1.531579744882778</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.871614867377045</v>
+        <v>-1.872187023327638</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4658570444046002</v>
+        <v>0.4623753141082831</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.02786118336735024</v>
       </c>
       <c r="E50" t="n">
-        <v>1.476358432050186</v>
+        <v>1.473196227635493</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.757954159618362</v>
+        <v>-1.758280768586032</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4077836089242113</v>
+        <v>0.4039382802108738</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.02157977279878816</v>
       </c>
       <c r="E51" t="n">
-        <v>1.353890300298265</v>
+        <v>1.350178763210238</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.699732766340571</v>
+        <v>-1.70077240597019</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3585372726760768</v>
+        <v>0.3546746297524049</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.06461353893207482</v>
       </c>
       <c r="E52" t="n">
-        <v>1.235128983577007</v>
+        <v>1.230548587934022</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.648435483177382</v>
+        <v>-1.649054859701613</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3156546957353608</v>
+        <v>0.3119085302266651</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.101674945620474</v>
       </c>
       <c r="E53" t="n">
-        <v>1.198718773263079</v>
+        <v>1.193749594897133</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.622676660257296</v>
+        <v>-1.623503807305539</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2802597277546722</v>
+        <v>0.2766221695653464</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.13443025895091</v>
       </c>
       <c r="E54" t="n">
-        <v>1.104894641480588</v>
+        <v>1.100216656652082</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.495067782055206</v>
+        <v>-1.495757989439897</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2471093110409585</v>
+        <v>0.2434654567751474</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1637745973126344</v>
       </c>
       <c r="E55" t="n">
-        <v>1.047556272929846</v>
+        <v>1.042838937623308</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.468320475126944</v>
+        <v>-1.468253579314289</v>
       </c>
       <c r="G55" t="n">
-        <v>0.2165717660686038</v>
+        <v>0.2135984439484668</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1910583096954888</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9756377652584965</v>
+        <v>0.9708244147855591</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.470927837801378</v>
+        <v>-1.471006538757443</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2209632794170327</v>
+        <v>0.218300039063792</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2175298398342481</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9408220363144467</v>
+        <v>0.9357174923040685</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.47514069997954</v>
+        <v>-1.475575916266579</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1789275247635766</v>
+        <v>0.1761682692439364</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2442641964240772</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9033839915143098</v>
+        <v>0.8980480666931004</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.475054915937429</v>
+        <v>-1.474851867470781</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1665935109290644</v>
+        <v>0.1638720318683355</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2734430690185519</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8719760139678759</v>
+        <v>0.8662686206340396</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.483982752393446</v>
+        <v>-1.483941827896292</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1545648568040845</v>
+        <v>0.1520070757319709</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3056125699916614</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8610916717440816</v>
+        <v>0.8559619434277627</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.522234565079296</v>
+        <v>-1.522053552880346</v>
       </c>
       <c r="G60" t="n">
-        <v>0.14658457985909</v>
+        <v>0.1445729834220678</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3419128733295871</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8992883937606855</v>
+        <v>0.8944309707523516</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.516790819948277</v>
+        <v>-1.516086446391495</v>
       </c>
       <c r="G61" t="n">
-        <v>0.131623528111127</v>
+        <v>0.1309089234300565</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3821538074968891</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8733359664886797</v>
+        <v>0.8682629028607276</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.545532409103228</v>
+        <v>-1.545531622093667</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1532662910290115</v>
+        <v>0.151923652718542</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.425854645852987</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8363858676161461</v>
+        <v>0.831616589678605</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.593109498073223</v>
+        <v>-1.592873395205028</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1315967697860649</v>
+        <v>0.1303769049670568</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4719996144673237</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8116706193734826</v>
+        <v>0.8066494983765334</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.584189531712812</v>
+        <v>-1.583385994951388</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1229664229439732</v>
+        <v>0.1212554641591194</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5181371258134362</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7832611482531265</v>
+        <v>0.7783785409388518</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.65086576870067</v>
+        <v>-1.650670590329628</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1021578901603781</v>
+        <v>0.1004469313755243</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5618561045736783</v>
       </c>
       <c r="E66" t="n">
-        <v>0.7312508344279879</v>
+        <v>0.7271914391141534</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.670400920015133</v>
+        <v>-1.669448638446746</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08735581434366645</v>
+        <v>0.08588253244612901</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6005323619707479</v>
       </c>
       <c r="E67" t="n">
-        <v>0.7256725106620983</v>
+        <v>0.7206104651679952</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.741109006982202</v>
+        <v>-1.740522684859518</v>
       </c>
       <c r="G67" t="n">
-        <v>0.07938812955164236</v>
+        <v>0.07799669664841256</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6325027460008573</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7189640411671148</v>
+        <v>0.7149676066181323</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.771276657461051</v>
+        <v>-1.769885224557821</v>
       </c>
       <c r="G68" t="n">
-        <v>0.08529857135212644</v>
+        <v>0.08341447046392952</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6569595593950726</v>
       </c>
       <c r="E69" t="n">
-        <v>0.7108043260422919</v>
+        <v>0.7075413844038356</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.820526928756989</v>
+        <v>-1.819977596083655</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0995843688970515</v>
+        <v>0.09773174839128058</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.6734107259488634</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6450764355750178</v>
+        <v>0.641020188299426</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.906151207927064</v>
+        <v>-1.90542007604522</v>
       </c>
       <c r="G70" t="n">
-        <v>0.08980341407728902</v>
+        <v>0.08776978137256852</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.681744423581724</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5751223037670514</v>
+        <v>0.5700508141582206</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.972737725825008</v>
+        <v>-1.971653226650432</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07914887864520466</v>
+        <v>0.07691062345471508</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.6826714150116018</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4827021970407602</v>
+        <v>0.4769397130376784</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.011395635444153</v>
+        <v>-2.011250038675433</v>
       </c>
       <c r="G72" t="n">
-        <v>0.08446591523695839</v>
+        <v>0.08237404382474978</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.6768118593534328</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4304967048445803</v>
+        <v>0.4254755838476311</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.10642389185444</v>
+        <v>-2.105665214637972</v>
       </c>
       <c r="G73" t="n">
-        <v>0.07545308174839065</v>
+        <v>0.07402072434800702</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.6654463874837763</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3279351929197488</v>
+        <v>0.3220153070045369</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.125955108121099</v>
+        <v>-2.124672282537239</v>
       </c>
       <c r="G74" t="n">
-        <v>0.04888049094259243</v>
+        <v>0.0469649096719695</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.649105744082342</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2521304320379076</v>
+        <v>0.2460562922488083</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.150520824547239</v>
+        <v>-2.148659546936301</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0508590329780674</v>
+        <v>0.04921733103455078</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6291471047581777</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2213914126180265</v>
+        <v>0.2152228316816491</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.210302070774239</v>
+        <v>-2.208086638861008</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03862418234819715</v>
+        <v>0.03705331126513907</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6063213389698181</v>
       </c>
       <c r="E77" t="n">
-        <v>0.118766939928343</v>
+        <v>0.1115516362763006</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.204963784924348</v>
+        <v>-2.202465816578843</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03160563108631739</v>
+        <v>0.03111925917783547</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5811884099690886</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1074733527330105</v>
+        <v>0.1003099917119711</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.200711572268154</v>
+        <v>-2.197311690966144</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05937290240518282</v>
+        <v>0.05888023442021571</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.553633334066347</v>
       </c>
       <c r="E79" t="n">
-        <v>0.05696937520695667</v>
+        <v>0.04981073624328114</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.214751822830156</v>
+        <v>-2.21168327255318</v>
       </c>
       <c r="G79" t="n">
-        <v>0.05296821860061032</v>
+        <v>0.05226778009163151</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5228091337077155</v>
       </c>
       <c r="E80" t="n">
-        <v>0.08720470850802158</v>
+        <v>0.07897731056098288</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.259198187767884</v>
+        <v>-2.256874148535283</v>
       </c>
       <c r="G80" t="n">
-        <v>0.09716824954585493</v>
+        <v>0.09643475663532881</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4885449160786549</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09997472563913407</v>
+        <v>0.09240054562743515</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.250973150849527</v>
+        <v>-2.249319643762601</v>
       </c>
       <c r="G81" t="n">
-        <v>0.09690066629523382</v>
+        <v>0.09591060826793568</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4507893994155047</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1375024895291851</v>
+        <v>0.1310915096481274</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.209023967247743</v>
+        <v>-2.207668736784303</v>
       </c>
       <c r="G82" t="n">
-        <v>0.07431978798105415</v>
+        <v>0.07341472698630626</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4102601149911047</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2539673123524656</v>
+        <v>0.2492153486252588</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.165216654073263</v>
+        <v>-2.164260437457072</v>
       </c>
       <c r="G83" t="n">
-        <v>0.09678104084201497</v>
+        <v>0.09612624888755388</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.3672792991857607</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3413678721009288</v>
+        <v>0.335317342598649</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.073706330399083</v>
+        <v>-2.071711261162835</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1354373764420386</v>
+        <v>0.1349573006100419</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.3225059005505374</v>
       </c>
       <c r="E85" t="n">
-        <v>0.478063562690287</v>
+        <v>0.4728189309781132</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.926781089540392</v>
+        <v>-1.924643571573666</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1178319725702904</v>
+        <v>0.1176005917594592</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.2762547464542332</v>
       </c>
       <c r="E86" t="n">
-        <v>0.665241194538001</v>
+        <v>0.6617106696489236</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.791452434557883</v>
+        <v>-1.788751417745731</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1908680338177636</v>
+        <v>0.1910144175960445</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2299476157043342</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9050713400123441</v>
+        <v>0.9019516341139262</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.57220652414235</v>
+        <v>-1.569909243234811</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1958923028529554</v>
+        <v>0.1955302784550562</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.183238468839551</v>
       </c>
       <c r="E88" t="n">
-        <v>1.072452533371459</v>
+        <v>1.070091504689508</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.403705416178429</v>
+        <v>-1.401832333424081</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2143051785339308</v>
+        <v>0.2137275135164135</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.137756880814963</v>
       </c>
       <c r="E89" t="n">
-        <v>1.256704063672675</v>
+        <v>1.255775392391108</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.199053811055596</v>
+        <v>-1.198329762259797</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2496277416350396</v>
+        <v>0.2496009833099774</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.09347693065136524</v>
       </c>
       <c r="E90" t="n">
-        <v>1.362802396563069</v>
+        <v>1.362659160823031</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9335569227797629</v>
+        <v>-0.9331028182632677</v>
       </c>
       <c r="G90" t="n">
-        <v>0.2362832075246523</v>
+        <v>0.2367113407256461</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.05178097120325923</v>
       </c>
       <c r="E91" t="n">
-        <v>1.505095299147773</v>
+        <v>1.505934251339426</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6269277668261005</v>
+        <v>-0.6269214707496152</v>
       </c>
       <c r="G91" t="n">
-        <v>0.160535111331178</v>
+        <v>0.1602864163100125</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.0141463666450254</v>
       </c>
       <c r="E92" t="n">
-        <v>1.526226505851235</v>
+        <v>1.527082772253222</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4191163183172559</v>
+        <v>-0.4187904963591466</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1462508878053743</v>
+        <v>0.1470599336337228</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.01838646105964238</v>
       </c>
       <c r="E93" t="n">
-        <v>1.570135343259039</v>
+        <v>1.571836857929165</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.212475940034659</v>
+        <v>-0.2118809608068073</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1214034219565216</v>
+        <v>0.1220676580257105</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.0456501002630739</v>
       </c>
       <c r="E94" t="n">
-        <v>1.530462191306655</v>
+        <v>1.5310493004389</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.01649954129887423</v>
+        <v>-0.01592817235784208</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1130028819061399</v>
+        <v>0.1135317523308969</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06863022276325623</v>
       </c>
       <c r="E95" t="n">
-        <v>1.539586780152835</v>
+        <v>1.539744182064965</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1371924077622888</v>
+        <v>0.1382312603823473</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05167909694026505</v>
+        <v>0.05238583152572907</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.08662071397418077</v>
       </c>
       <c r="E96" t="n">
-        <v>1.471796924636657</v>
+        <v>1.471024081248098</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2486030551870728</v>
+        <v>0.2506760383698258</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.01028531380797912</v>
+        <v>-0.009746999268494283</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.09938496017054498</v>
       </c>
       <c r="E97" t="n">
-        <v>1.422372724227815</v>
+        <v>1.421286651034118</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2713917040252642</v>
+        <v>0.2736126450054194</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.03304720432110837</v>
+        <v>-0.03280008331906416</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1052800080294105</v>
       </c>
       <c r="E98" t="n">
-        <v>1.287729554572633</v>
+        <v>1.286168127604303</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3217461497347945</v>
+        <v>0.3232949845501543</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08779631141731019</v>
+        <v>-0.0878167736658871</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1056655701853441</v>
       </c>
       <c r="E99" t="n">
-        <v>1.190258420486088</v>
+        <v>1.188774120454701</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3428175437116468</v>
+        <v>0.3442939736474268</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09188876113269198</v>
+        <v>-0.09206032921691375</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.09825602211496255</v>
       </c>
       <c r="E100" t="n">
-        <v>1.082345243548834</v>
+        <v>1.081188339494678</v>
       </c>
       <c r="F100" t="n">
-        <v>0.362799716456559</v>
+        <v>0.3642462400290343</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1420071039740272</v>
+        <v>-0.1420558985667875</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.0856967647788031</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9756235990864048</v>
+        <v>0.9744761391469767</v>
       </c>
       <c r="F101" t="n">
-        <v>0.335045037290664</v>
+        <v>0.3365183191882014</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1495214712591167</v>
+        <v>-0.1498834956570158</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.05902599127885731</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9291884609889133</v>
+        <v>0.928673756736248</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3044524016490638</v>
+        <v>0.3058642968008705</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1761853551739503</v>
+        <v>-0.1769707907154794</v>
       </c>
     </row>
   </sheetData>
